--- a/planning/data_plan.xlsx
+++ b/planning/data_plan.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\OneDrive\Desktop\Web\23S1_WDC_UG109_arseny\planning\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555ADA3B-299B-453E-A935-6E3C1D76C2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -20,76 +36,76 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t xml:space="preserve">Data Plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Group Name/Number:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feature/Interaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purpose/Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Request Data Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Request sent to server</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="97">
+  <si>
+    <t>Data Plan</t>
+  </si>
+  <si>
+    <t>Group Name/Number:</t>
+  </si>
+  <si>
+    <t>Feature/Interaction</t>
+  </si>
+  <si>
+    <t>Purpose/Description</t>
+  </si>
+  <si>
+    <t>Request Data Source</t>
+  </si>
+  <si>
+    <t>Request sent to server</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Processing Needed/</t>
+      <t>Processing Needed/</t>
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Response Data Source</t>
+      <t>Response Data Source</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Response sent to client</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Request Type &amp; Path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restaurant Search</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is an example of an entry in a data plan for a restaurant booking system.
+    <t>Response sent to client</t>
+  </si>
+  <si>
+    <t>Request Type &amp; Path</t>
+  </si>
+  <si>
+    <t>Other Notes</t>
+  </si>
+  <si>
+    <t>Restaurant Search</t>
+  </si>
+  <si>
+    <t>This is an example of an entry in a data plan for a restaurant booking system.
 Users can search for restaurants and have the most relevant search results displayed.</t>
   </si>
   <si>
-    <t xml:space="preserve">A search bar/text input on the main search page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JSON formatted AJAX request containing the search term:
+    <t>A search bar/text input on the main search page</t>
+  </si>
+  <si>
+    <t>JSON formatted AJAX request containing the search term:
 { 
     "query": "[the search bar contents]"
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">Find all restaurants in database whose names, locations, or cuisines match the search term.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JSON formatted AJAX response containing the the restaurant details:
+    <t>Find all restaurants in database whose names, locations, or cuisines match the search term.</t>
+  </si>
+  <si>
+    <t>JSON formatted AJAX response containing the the restaurant details:
 [
     { 
         "id": "restaurant id",
@@ -101,22 +117,361 @@
 ]</t>
   </si>
   <si>
-    <t xml:space="preserve">POST Request
+    <t>POST Request
 /restaurants</t>
   </si>
   <si>
-    <t xml:space="preserve">This same request could be achieved with a GET request via URL parameters, so when writing these yourself use your discretion.
+    <t>This same request could be achieved with a GET request via URL parameters, so when writing these yourself use your discretion.
 By using a POST request with JSON body we can easily expand to additional fields like location or date range.</t>
+  </si>
+  <si>
+    <t>Club Search</t>
+  </si>
+  <si>
+    <t>Users can search for clubs and have the most relevant search results displayed.</t>
+  </si>
+  <si>
+    <t>JSON formatted AJAX response containing the the details of the clubs:
+[
+    { 
+        "id": "club id",
+        "name": "club name",
+        "description": "club description"
+    },
+    ...
+]</t>
+  </si>
+  <si>
+    <t>JSON formatted AJAX request, an array of keywords (strings), where keywords are seperated by spaces in the text input. (i.e. the input text "computer science club" will yield the keywords "computer" "science" and "club"). Filters can be selected also: 
+{
+   "keywords": ["word1", "word2", "word3", ...],
+   "filters": ["filter1", "filter2", "filter3", ...]
+}</t>
+  </si>
+  <si>
+    <t>Find all clubs in database whose names/descriptions match the search terms. 
+Search results can be ranked based on how many search terms the clubs match. Ranking algorithm can be refined in implementation later. Clubs that do not pass the filter will not be shown.</t>
+  </si>
+  <si>
+    <t>User Sign-up</t>
+  </si>
+  <si>
+    <t>A response status determining if sign-up was successful. If success, redirect to home page with logged in status as true, if not, display an error message in the register page.</t>
+  </si>
+  <si>
+    <t>User Login</t>
+  </si>
+  <si>
+    <t>Users can login to a registered account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Determine if inputted username and password combination match any of the combinations in the database. </t>
+  </si>
+  <si>
+    <t>A response status (or a boolean expression) determining if login was successful. If success, redirect to home page with logged in status as true, if not, display an error message in the login page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text inputs for (On the login page):
+- Username
+- Password
+</t>
+  </si>
+  <si>
+    <t>GET Request 
+/login</t>
+  </si>
+  <si>
+    <t>POST Request
+/signup</t>
+  </si>
+  <si>
+    <t>GET Request
+/clubsearch</t>
+  </si>
+  <si>
+    <t>User Profile Editting</t>
+  </si>
+  <si>
+    <t>JSON formatted AJAX request with user details obtained from inputs:
+{
+   "User name": "text input contents",
+   "Password": "text input contents"
+}</t>
+  </si>
+  <si>
+    <t>Users can sign-up to make an account.</t>
+  </si>
+  <si>
+    <t>A response status determining if editting was successful. If success, redirect to home page, if not, display an error message in the profile page.</t>
+  </si>
+  <si>
+    <t>GET Request
+/editprofile</t>
+  </si>
+  <si>
+    <t>User Event Registration</t>
+  </si>
+  <si>
+    <t>User Event Search</t>
+  </si>
+  <si>
+    <t>Club Manager Create Event</t>
+  </si>
+  <si>
+    <t>Users can search for events in the same way they search for clubs</t>
+  </si>
+  <si>
+    <t>Users can register for events</t>
+  </si>
+  <si>
+    <t>JSON formatted AJAX request with user details obtained from inputs:
+{
+   "Title": "text input contents",
+   "Description": "text input contents",
+   "Date": date input,
+   "Time": time input
+}</t>
+  </si>
+  <si>
+    <t>Create a new event in the event table in the database with a newly generated unique ID, and fill in the data obtained from manager input</t>
+  </si>
+  <si>
+    <t>Text inputs for (On the create event page):
+- Event Title
+- Event Description
+Other inputs:
+- Date (html date input)
+- Time (html time input)</t>
+  </si>
+  <si>
+    <t>A response status determining if creation was successful. If success, redirect to club page, if not, display an error message in the event creation page.</t>
+  </si>
+  <si>
+    <t>POST Request
+/createevent</t>
+  </si>
+  <si>
+    <t>Managers can create events</t>
+  </si>
+  <si>
+    <t>Managers can post updates about the club</t>
+  </si>
+  <si>
+    <t>Text inputs for (On the post update page): 
+- Update Title
+- Update Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add club update inputs to the Updates table in the database. </t>
+  </si>
+  <si>
+    <t>A response status determining if update post was successful. If success, redirect to club page, if not, display an error message in the update post page.</t>
+  </si>
+  <si>
+    <t>POST Request
+/postupdate</t>
+  </si>
+  <si>
+    <t>JSON formatted AJAX request with user details obtained from inputs:
+{
+   "Club ID": automatically detected
+   "Update title": "text input contents",
+   "Update description": "text input contents"
+}</t>
+  </si>
+  <si>
+    <t>System Admin Create Club</t>
+  </si>
+  <si>
+    <t>System Admin Create New Admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System Admin can make a new admin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if username is already taken, if not, change user details in database. Since users have to be logged in to edit profile, the user can be identified by their username.
+</t>
+  </si>
+  <si>
+    <t>Users can edit their profile.</t>
+  </si>
+  <si>
+    <t>Text inputs for (On the sign-up page):
+- First name
+- Last name
+- User name
+- Email
+- Password 
+- Password confirm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text inputs for (On the sign-up page):
+- First name
+- Last name
+- User name
+- Email
+- Password
+- Password confirm
+</t>
+  </si>
+  <si>
+    <t>JSON formatted AJAX request with user details obtained from inputs:
+{
+   "First name": "text input contents",
+   "Last name": "text input contents",
+   "User name": "text input contents",
+   "Password": "text input contents",
+   "Email": "text input contents"
+}</t>
+  </si>
+  <si>
+    <t>Determine if inputted username is already present in the database (username is the only unique identifier of a user, different users can share everything else). 
+Determine if passwords match.
+If not already registered and passwords match, user details will need to be added to user database. Current user will be considered as "logged in".</t>
+  </si>
+  <si>
+    <t>POST Request
+/adminsignup</t>
+  </si>
+  <si>
+    <t>System Admins can login</t>
+  </si>
+  <si>
+    <t>GET Request 
+/adminlogin</t>
+  </si>
+  <si>
+    <t>A response status (or a boolean expression) determining if login was successful. If success, redirect to home page with ADMIN logged in status as true, if not, display an error message in the login page.</t>
+  </si>
+  <si>
+    <t>System Admins can create clubs</t>
+  </si>
+  <si>
+    <t>Text inputs for (on the create club page):
+- Club Name
+- Club Description</t>
+  </si>
+  <si>
+    <t>JSON formatted AJAX request with club details obtained from inputs:
+{
+   "Club Name": "text input contents",
+   "Club Description": "text input contents"
+}</t>
+  </si>
+  <si>
+    <t>Generate new club id in the clubs table in the database. Add the club name and club description data from input into the newly generated club</t>
+  </si>
+  <si>
+    <t>POST Request
+/createclub</t>
+  </si>
+  <si>
+    <t>Button Input to register for event</t>
+  </si>
+  <si>
+    <t>Text inputs for (On the profile page):
+- First name
+- Last name
+- New user name
+- Email
+- Password
+A "save changes" button for users to commit their changes</t>
+  </si>
+  <si>
+    <t>JSON formatted AJAX request with user details obtained from inputs:
+{
+   "First name": "text input contents",
+   "Last name": "text input contents",
+   "New user name": "text input contents",
+   "Email": "text input contents",
+   "Password": "text input contents",
+   "User name": automatically detected
+}</t>
+  </si>
+  <si>
+    <t>JSON formatted AJAX request with user details automaticall detected:
+{
+   "Username": automatically detected,
+   "Event id": automatically detected
+}</t>
+  </si>
+  <si>
+    <t>In database, add the new username and event id row</t>
+  </si>
+  <si>
+    <t>POST Request
+/registerevent</t>
+  </si>
+  <si>
+    <t>A response status determining if revent register was successful. If success, redirect to home page, if not, display an error message in the event register page.</t>
+  </si>
+  <si>
+    <t>Club Manager remove club member</t>
+  </si>
+  <si>
+    <t>Managers can remove members of their clubs (but not other managers)</t>
+  </si>
+  <si>
+    <t>A list of checkboxes next to the club members usernames to allow the manager to select who to remove.
+A "confirm" button for managers to commit their changes</t>
+  </si>
+  <si>
+    <t>JSON formatted AJAX request with usernames obtained from inputs:
+{
+   "Username List": ["username1", "username2", "username3", … ]
+}</t>
+  </si>
+  <si>
+    <t>POST Request
+/removemember</t>
+  </si>
+  <si>
+    <t>A response status determining if removal was successful. If success, redirect to club page, if not, display an error message in the member removal page.</t>
+  </si>
+  <si>
+    <t>Determine if inputted username is already present in the database
+Determine if passwords match.
+If not already registered and passwords match, admin details will need to be added to admin database.</t>
+  </si>
+  <si>
+    <t>A response status determining if sign-up was successful. If success, redirect to home page, if not, display an error message in the register page.</t>
+  </si>
+  <si>
+    <t>System Admin Login (System admins )</t>
+  </si>
+  <si>
+    <t>Club Manager Post Update (Managers are just Users (i.e. they have all of the functionalities that a user has) that have been given special permissions within clubs, for instance like Discord Moderators)</t>
+  </si>
+  <si>
+    <t>System Admin delete User (including club Managers, as they are users too)</t>
+  </si>
+  <si>
+    <t>System admins can delete users on a "Manage users" page</t>
+  </si>
+  <si>
+    <t>A list of checkboxes next to the usernames to allow the admins to select who to delete.
+A "confirm" button for admins to commit their changes</t>
+  </si>
+  <si>
+    <t>Find all the users from input in the Users table in the database and remove those rows. Then go into all tables that have a username column and delete the specified rows as well if they exist.</t>
+  </si>
+  <si>
+    <t>POST Request
+/deleteuser</t>
+  </si>
+  <si>
+    <t>Find all the users from input in the Club Enrolments table in the database and remove those rows
+Find all the users from input in the Event Enrolments table in the database and remove those rows</t>
+  </si>
+  <si>
+    <t>A response status determining if deletion was successful. If success, redirect to club page, if not, display an error message in the user deletion page.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -125,40 +480,25 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="24"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -174,13 +514,11 @@
       <sz val="10"/>
       <color rgb="FF2F4F4F"/>
       <name val="Monospace"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Monospace"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -205,137 +543,121 @@
     </fill>
   </fills>
   <borders count="5">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -394,36 +716,344 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF2F4F4F"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMJ63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="34.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="61.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="40.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="61.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="23.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="45.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="9" style="1" width="11.52"/>
+    <col min="1" max="1" width="26" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="61.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="61.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="45.7109375" style="1" customWidth="1"/>
+    <col min="9" max="1024" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="33.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -432,8 +1062,8 @@
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" s="7" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" s="5" customFormat="1"/>
+    <row r="3" spans="1:8" s="7" customFormat="1">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -459,7 +1089,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" s="10" customFormat="true" ht="149.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8" s="10" customFormat="1" ht="127.5">
       <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
@@ -485,147 +1115,309 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="11"/>
+    <row r="5" spans="1:8" s="10" customFormat="1" ht="117.75" customHeight="1">
+      <c r="A5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="11"/>
+    <row r="6" spans="1:8" s="10" customFormat="1" ht="204" customHeight="1">
+      <c r="A6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="H6" s="11"/>
     </row>
-    <row r="7" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="11"/>
+    <row r="7" spans="1:8" s="10" customFormat="1" ht="90" customHeight="1">
+      <c r="A7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="11"/>
+    <row r="8" spans="1:8" s="10" customFormat="1" ht="120" customHeight="1">
+      <c r="A8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+    <row r="9" spans="1:8" s="10" customFormat="1" ht="72" customHeight="1">
+      <c r="A9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="D9" s="12"/>
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="11"/>
+    <row r="10" spans="1:8" s="10" customFormat="1" ht="81.75" customHeight="1">
+      <c r="A10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>78</v>
+      </c>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="11"/>
+    <row r="11" spans="1:8" s="10" customFormat="1" ht="109.5" customHeight="1">
+      <c r="A11" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="11"/>
+    <row r="12" spans="1:8" s="10" customFormat="1" ht="95.25" customHeight="1">
+      <c r="A12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="11"/>
+    <row r="13" spans="1:8" s="10" customFormat="1" ht="95.25" customHeight="1">
+      <c r="A13" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8" s="10" customFormat="1" ht="76.5" customHeight="1"/>
+    <row r="15" spans="1:8" s="10" customFormat="1" ht="87.75" customHeight="1">
+      <c r="A15" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="11"/>
+    <row r="16" spans="1:8" s="10" customFormat="1" ht="167.25" customHeight="1">
+      <c r="A16" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="11"/>
+    <row r="17" spans="1:8" s="10" customFormat="1" ht="123.75" customHeight="1">
+      <c r="A17" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>64</v>
+      </c>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="11"/>
+    <row r="18" spans="1:8" s="10" customFormat="1" ht="133.5" customHeight="1">
+      <c r="A18" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>94</v>
+      </c>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:8" s="10" customFormat="1">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -635,7 +1427,7 @@
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:8" s="10" customFormat="1">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -645,7 +1437,7 @@
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
     </row>
-    <row r="21" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:8" s="10" customFormat="1">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -655,7 +1447,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:8" s="10" customFormat="1">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -665,7 +1457,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:8" s="10" customFormat="1">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -675,7 +1467,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:8" s="10" customFormat="1">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -685,7 +1477,7 @@
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:8" s="10" customFormat="1">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -695,7 +1487,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
     </row>
-    <row r="26" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:8" s="10" customFormat="1">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -705,7 +1497,7 @@
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
     </row>
-    <row r="27" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:8" s="10" customFormat="1">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -715,7 +1507,7 @@
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
     </row>
-    <row r="28" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:8" s="10" customFormat="1">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -725,7 +1517,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
     </row>
-    <row r="29" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:8" s="10" customFormat="1">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -735,7 +1527,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
     </row>
-    <row r="30" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:8" s="10" customFormat="1">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -745,7 +1537,7 @@
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
     </row>
-    <row r="31" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:8" s="10" customFormat="1">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -755,7 +1547,7 @@
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
     </row>
-    <row r="32" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:8" s="10" customFormat="1">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -765,7 +1557,7 @@
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
     </row>
-    <row r="33" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:8" s="10" customFormat="1">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -775,7 +1567,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
     </row>
-    <row r="34" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:8" s="10" customFormat="1">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -785,7 +1577,7 @@
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
     </row>
-    <row r="35" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:8" s="10" customFormat="1">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -795,7 +1587,7 @@
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
     </row>
-    <row r="36" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:8" s="10" customFormat="1">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -805,7 +1597,7 @@
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
     </row>
-    <row r="37" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:8" s="10" customFormat="1">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -815,7 +1607,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
     </row>
-    <row r="38" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:8" s="10" customFormat="1">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -825,7 +1617,7 @@
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
     </row>
-    <row r="39" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:8" s="10" customFormat="1">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -835,7 +1627,7 @@
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
     </row>
-    <row r="40" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:8" s="10" customFormat="1">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -845,7 +1637,7 @@
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
     </row>
-    <row r="41" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:8" s="10" customFormat="1">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -855,7 +1647,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
     </row>
-    <row r="42" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:8" s="10" customFormat="1">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -865,7 +1657,7 @@
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
     </row>
-    <row r="43" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:8" s="10" customFormat="1">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -875,7 +1667,7 @@
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
     </row>
-    <row r="44" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:8" s="10" customFormat="1">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -885,7 +1677,7 @@
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
     </row>
-    <row r="45" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:8" s="10" customFormat="1">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -895,7 +1687,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
     </row>
-    <row r="46" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:8" s="10" customFormat="1">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -905,7 +1697,7 @@
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
     </row>
-    <row r="47" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:8" s="10" customFormat="1">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -915,7 +1707,7 @@
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
     </row>
-    <row r="48" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:8" s="10" customFormat="1">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -925,7 +1717,7 @@
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
     </row>
-    <row r="49" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:8" s="10" customFormat="1">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -935,7 +1727,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
     </row>
-    <row r="50" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:8" s="10" customFormat="1">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -945,7 +1737,7 @@
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
     </row>
-    <row r="51" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:8" s="10" customFormat="1">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -955,7 +1747,7 @@
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
     </row>
-    <row r="52" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:8" s="10" customFormat="1">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -965,7 +1757,7 @@
       <c r="G52" s="11"/>
       <c r="H52" s="11"/>
     </row>
-    <row r="53" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:8" s="10" customFormat="1">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -975,7 +1767,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="11"/>
     </row>
-    <row r="54" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:8" s="10" customFormat="1">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -985,7 +1777,7 @@
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
     </row>
-    <row r="55" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:8" s="10" customFormat="1">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -995,7 +1787,7 @@
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
     </row>
-    <row r="56" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:8" s="10" customFormat="1">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -1005,7 +1797,7 @@
       <c r="G56" s="11"/>
       <c r="H56" s="11"/>
     </row>
-    <row r="57" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:8" s="10" customFormat="1">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -1015,7 +1807,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
     </row>
-    <row r="58" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:8" s="10" customFormat="1">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -1025,7 +1817,7 @@
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
     </row>
-    <row r="59" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:8" s="10" customFormat="1">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -1035,7 +1827,7 @@
       <c r="G59" s="11"/>
       <c r="H59" s="11"/>
     </row>
-    <row r="60" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:8" s="10" customFormat="1">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -1045,7 +1837,7 @@
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
     </row>
-    <row r="61" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:8" s="10" customFormat="1">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -1055,21 +1847,30 @@
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
     </row>
-    <row r="62" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="13"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
+    <row r="62" spans="1:8" s="10" customFormat="1">
+      <c r="A62" s="11"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+    </row>
+    <row r="63" spans="1:8" s="10" customFormat="1">
+      <c r="A63" s="13"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/planning/data_plan.xlsx
+++ b/planning/data_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\OneDrive\Desktop\Web\23S1_WDC_UG109_arseny\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555ADA3B-299B-453E-A935-6E3C1D76C2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDEEE0F-305D-4D86-ADA0-B53C781158D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="95">
   <si>
     <t>Data Plan</t>
   </si>
@@ -212,13 +212,7 @@
     <t>User Event Registration</t>
   </si>
   <si>
-    <t>User Event Search</t>
-  </si>
-  <si>
     <t>Club Manager Create Event</t>
-  </si>
-  <si>
-    <t>Users can search for events in the same way they search for clubs</t>
   </si>
   <si>
     <t>Users can register for events</t>
@@ -602,7 +596,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -646,10 +640,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1037,7 +1028,7 @@
   <dimension ref="A1:AMJ63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -1147,13 +1138,13 @@
         <v>35</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>63</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>24</v>
@@ -1192,16 +1183,16 @@
         <v>33</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>36</v>
@@ -1212,12 +1203,8 @@
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8" s="10" customFormat="1" ht="72" customHeight="1">
-      <c r="A9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>41</v>
-      </c>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
       <c r="D9" s="12"/>
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
@@ -1229,104 +1216,103 @@
         <v>38</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D10" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>76</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>78</v>
       </c>
       <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:8" s="10" customFormat="1" ht="109.5" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="F11" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="G11" s="11" t="s">
         <v>51</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" s="10" customFormat="1" ht="95.25" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>47</v>
-      </c>
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" s="10" customFormat="1" ht="95.25" customHeight="1">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="D13" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="E13" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" s="10" customFormat="1" ht="76.5" customHeight="1"/>
     <row r="15" spans="1:8" s="10" customFormat="1" ht="87.75" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>29</v>
@@ -1338,82 +1324,82 @@
         <v>27</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" s="10" customFormat="1" ht="167.25" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="E16" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="F16" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>72</v>
       </c>
       <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:8" s="10" customFormat="1" ht="123.75" customHeight="1">
       <c r="A17" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="E17" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>64</v>
       </c>
       <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8" s="10" customFormat="1" ht="133.5" customHeight="1">
       <c r="A18" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="D18" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="F18" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="H18" s="11"/>
     </row>

--- a/planning/data_plan.xlsx
+++ b/planning/data_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\OneDrive\Desktop\Web\23S1_WDC_UG109_arseny\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDEEE0F-305D-4D86-ADA0-B53C781158D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275B1AA4-BC9C-456E-A70E-471B6B231B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="102">
   <si>
     <t>Data Plan</t>
   </si>
@@ -459,6 +459,33 @@
   </si>
   <si>
     <t>A response status determining if deletion was successful. If success, redirect to club page, if not, display an error message in the user deletion page.</t>
+  </si>
+  <si>
+    <t>System Admin promotes member</t>
+  </si>
+  <si>
+    <t>A list of checkboxes next to the usernames to allow the admins to select who to promote.
+A "confirm" button for admins to commit their changes</t>
+  </si>
+  <si>
+    <t>JSON formatted AJAX request with usernames obtained from inputs:
+{
+   "Username List": ["username1", "username2", "username3", … ],
+   "Club ID": Automatically detected
+}</t>
+  </si>
+  <si>
+    <t>Add to the Appointed Club Managers table in the database the usernames and the club ID given by the input.</t>
+  </si>
+  <si>
+    <t>A response status determining if deletion was successful. If success, redirect to club page, if not, display an error message in the member promotion page.</t>
+  </si>
+  <si>
+    <t>POST Request
+/promotemember</t>
+  </si>
+  <si>
+    <t>System Admin can promote a club member to a club manager. They will need to navigate to the club that they want to promote the members of.</t>
   </si>
 </sst>
 </file>
@@ -1027,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -1403,14 +1430,28 @@
       </c>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" spans="1:8" s="10" customFormat="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="11"/>
+    <row r="19" spans="1:8" s="10" customFormat="1" ht="95.25" customHeight="1">
+      <c r="A19" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>100</v>
+      </c>
       <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8" s="10" customFormat="1">
